--- a/data/misc/skip_conditions_final.xlsx
+++ b/data/misc/skip_conditions_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdpruett/Desktop/CES Accuracy Analysis/data/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84421227-AD40-FA46-9657-3E6BD3070817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4C10A0-F1B0-5445-A81C-F9CBE01F2245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="1560" windowWidth="17000" windowHeight="12740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="1560" windowWidth="23080" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="67">
   <si>
     <t>State</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>SENATOR_rc</t>
+  </si>
+  <si>
+    <t>Secretary of State does not have these election results tabulated</t>
   </si>
 </sst>
 </file>
@@ -573,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E394"/>
+  <dimension ref="A1:E398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="E360" sqref="E360"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1113,16 +1116,16 @@
         <v>14</v>
       </c>
       <c r="B32">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1130,16 +1133,16 @@
         <v>14</v>
       </c>
       <c r="B33">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1147,16 +1150,16 @@
         <v>14</v>
       </c>
       <c r="B34">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1164,21 +1167,21 @@
         <v>14</v>
       </c>
       <c r="B35">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>2012</v>
@@ -1195,7 +1198,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37">
         <v>2012</v>
@@ -1212,7 +1215,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>2016</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39">
         <v>2016</v>
@@ -1246,7 +1249,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40">
         <v>2012</v>
@@ -1263,7 +1266,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41">
         <v>2012</v>
@@ -1280,7 +1283,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42">
         <v>2016</v>
@@ -1297,7 +1300,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43">
         <v>2016</v>
@@ -1314,7 +1317,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>2012</v>
@@ -1331,7 +1334,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>2012</v>
@@ -1348,7 +1351,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>2016</v>
@@ -1365,7 +1368,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47">
         <v>2016</v>
@@ -1382,13 +1385,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -1399,13 +1402,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49">
         <v>2012</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -1416,13 +1419,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -1433,10 +1436,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -1453,10 +1456,10 @@
         <v>18</v>
       </c>
       <c r="B52">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -1470,10 +1473,10 @@
         <v>18</v>
       </c>
       <c r="B53">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -1484,27 +1487,27 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B54">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B55">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -1513,32 +1516,32 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B56">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
@@ -1547,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1555,10 +1558,10 @@
         <v>19</v>
       </c>
       <c r="B58">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -1575,7 +1578,7 @@
         <v>2010</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -1592,7 +1595,7 @@
         <v>2012</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -1606,10 +1609,10 @@
         <v>19</v>
       </c>
       <c r="B61">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -1623,10 +1626,10 @@
         <v>19</v>
       </c>
       <c r="B62">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
@@ -1640,10 +1643,10 @@
         <v>19</v>
       </c>
       <c r="B63">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -1657,10 +1660,10 @@
         <v>19</v>
       </c>
       <c r="B64">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -1674,10 +1677,10 @@
         <v>19</v>
       </c>
       <c r="B65">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -1691,10 +1694,10 @@
         <v>19</v>
       </c>
       <c r="B66">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C66" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -1708,7 +1711,7 @@
         <v>19</v>
       </c>
       <c r="B67">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="C67" t="s">
         <v>65</v>
@@ -1725,7 +1728,7 @@
         <v>19</v>
       </c>
       <c r="B68">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="C68" t="s">
         <v>65</v>
@@ -1742,7 +1745,7 @@
         <v>19</v>
       </c>
       <c r="B69">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="C69" t="s">
         <v>65</v>
@@ -1759,7 +1762,7 @@
         <v>19</v>
       </c>
       <c r="B70">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="C70" t="s">
         <v>65</v>
@@ -1776,7 +1779,7 @@
         <v>19</v>
       </c>
       <c r="B71">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="C71" t="s">
         <v>65</v>
@@ -1790,13 +1793,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B72">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D72" t="b">
         <v>1</v>
@@ -1807,13 +1810,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B73">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
@@ -1824,30 +1827,30 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B74">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B75">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
@@ -1861,7 +1864,7 @@
         <v>20</v>
       </c>
       <c r="B76">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
@@ -1878,16 +1881,16 @@
         <v>20</v>
       </c>
       <c r="B77">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -1895,41 +1898,41 @@
         <v>20</v>
       </c>
       <c r="B78">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B79">
         <v>2012</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="b">
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B80">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C80" t="s">
         <v>10</v>
@@ -1938,12 +1941,12 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B81">
         <v>2016</v>
@@ -1960,7 +1963,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B82">
         <v>2016</v>
@@ -1972,15 +1975,15 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B83">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
@@ -1989,32 +1992,32 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B84">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="b">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B85">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
@@ -2023,24 +2026,24 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B86">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="b">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2048,7 +2051,7 @@
         <v>22</v>
       </c>
       <c r="B87">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
@@ -2065,10 +2068,10 @@
         <v>22</v>
       </c>
       <c r="B88">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" t="b">
         <v>1</v>
@@ -2082,10 +2085,10 @@
         <v>22</v>
       </c>
       <c r="B89">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D89" t="b">
         <v>1</v>
@@ -2099,10 +2102,10 @@
         <v>22</v>
       </c>
       <c r="B90">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D90" t="b">
         <v>1</v>
@@ -2116,10 +2119,10 @@
         <v>22</v>
       </c>
       <c r="B91">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D91" t="b">
         <v>1</v>
@@ -2133,7 +2136,7 @@
         <v>22</v>
       </c>
       <c r="B92">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C92" t="s">
         <v>10</v>
@@ -2147,27 +2150,27 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B93">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B94">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
@@ -2176,29 +2179,29 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B95">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B96">
         <v>2016</v>
@@ -2210,12 +2213,12 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B97">
         <v>2012</v>
@@ -2232,7 +2235,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B98">
         <v>2012</v>
@@ -2249,7 +2252,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B99">
         <v>2016</v>
@@ -2266,7 +2269,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B100">
         <v>2016</v>
@@ -2283,10 +2286,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B101">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
@@ -2300,7 +2303,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B102">
         <v>2012</v>
@@ -2317,10 +2320,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B103">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
@@ -2334,7 +2337,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B104">
         <v>2016</v>
@@ -2354,7 +2357,7 @@
         <v>25</v>
       </c>
       <c r="B105">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="C105" t="s">
         <v>9</v>
@@ -2368,13 +2371,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B106">
         <v>2012</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
@@ -2385,13 +2388,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B107">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D107" t="b">
         <v>1</v>
@@ -2402,13 +2405,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B108">
         <v>2016</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="b">
         <v>1</v>
@@ -2419,13 +2422,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B109">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
@@ -2436,7 +2439,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B110">
         <v>2012</v>
@@ -2453,7 +2456,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B111">
         <v>2012</v>
@@ -2470,7 +2473,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B112">
         <v>2016</v>
@@ -2487,7 +2490,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B113">
         <v>2016</v>
@@ -2504,10 +2507,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B114">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C114" t="s">
         <v>9</v>
@@ -2521,10 +2524,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B115">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C115" t="s">
         <v>10</v>
@@ -2538,10 +2541,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B116">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C116" t="s">
         <v>9</v>
@@ -2555,10 +2558,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B117">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C117" t="s">
         <v>10</v>
@@ -2575,7 +2578,7 @@
         <v>28</v>
       </c>
       <c r="B118">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C118" t="s">
         <v>9</v>
@@ -2592,7 +2595,7 @@
         <v>28</v>
       </c>
       <c r="B119">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C119" t="s">
         <v>10</v>
@@ -2609,7 +2612,7 @@
         <v>28</v>
       </c>
       <c r="B120">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C120" t="s">
         <v>9</v>
@@ -2626,7 +2629,7 @@
         <v>28</v>
       </c>
       <c r="B121">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C121" t="s">
         <v>10</v>
@@ -2643,7 +2646,7 @@
         <v>28</v>
       </c>
       <c r="B122">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C122" t="s">
         <v>9</v>
@@ -2660,7 +2663,7 @@
         <v>28</v>
       </c>
       <c r="B123">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C123" t="s">
         <v>10</v>
@@ -2674,13 +2677,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B124">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D124" t="b">
         <v>1</v>
@@ -2691,13 +2694,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B125">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D125" t="b">
         <v>1</v>
@@ -2708,10 +2711,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B126">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C126" t="s">
         <v>9</v>
@@ -2725,10 +2728,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B127">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C127" t="s">
         <v>10</v>
@@ -2745,7 +2748,7 @@
         <v>29</v>
       </c>
       <c r="B128">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
@@ -2762,7 +2765,7 @@
         <v>29</v>
       </c>
       <c r="B129">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C129" t="s">
         <v>8</v>
@@ -2779,7 +2782,7 @@
         <v>29</v>
       </c>
       <c r="B130">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C130" t="s">
         <v>9</v>
@@ -2796,7 +2799,7 @@
         <v>29</v>
       </c>
       <c r="B131">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C131" t="s">
         <v>10</v>
@@ -2813,7 +2816,7 @@
         <v>29</v>
       </c>
       <c r="B132">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C132" t="s">
         <v>6</v>
@@ -2830,7 +2833,7 @@
         <v>29</v>
       </c>
       <c r="B133">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C133" t="s">
         <v>8</v>
@@ -2847,7 +2850,7 @@
         <v>29</v>
       </c>
       <c r="B134">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C134" t="s">
         <v>9</v>
@@ -2864,7 +2867,7 @@
         <v>29</v>
       </c>
       <c r="B135">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C135" t="s">
         <v>10</v>
@@ -2881,7 +2884,7 @@
         <v>29</v>
       </c>
       <c r="B136">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C136" t="s">
         <v>6</v>
@@ -2898,7 +2901,7 @@
         <v>29</v>
       </c>
       <c r="B137">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C137" t="s">
         <v>8</v>
@@ -2915,7 +2918,7 @@
         <v>29</v>
       </c>
       <c r="B138">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C138" t="s">
         <v>9</v>
@@ -2932,7 +2935,7 @@
         <v>29</v>
       </c>
       <c r="B139">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C139" t="s">
         <v>10</v>
@@ -2949,7 +2952,7 @@
         <v>29</v>
       </c>
       <c r="B140">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
@@ -2966,7 +2969,7 @@
         <v>29</v>
       </c>
       <c r="B141">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
@@ -2983,10 +2986,10 @@
         <v>29</v>
       </c>
       <c r="B142">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="b">
         <v>1</v>
@@ -3000,10 +3003,10 @@
         <v>29</v>
       </c>
       <c r="B143">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D143" t="b">
         <v>1</v>
@@ -3017,10 +3020,10 @@
         <v>29</v>
       </c>
       <c r="B144">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D144" t="b">
         <v>1</v>
@@ -3034,10 +3037,10 @@
         <v>29</v>
       </c>
       <c r="B145">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D145" t="b">
         <v>1</v>
@@ -3051,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B146">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C146" t="s">
         <v>8</v>
@@ -3065,70 +3068,70 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B147">
-        <v>2006</v>
+        <v>2020</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D147" t="b">
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B148">
-        <v>2006</v>
+        <v>2020</v>
       </c>
       <c r="C148" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D148" t="b">
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B149">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D149" t="b">
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B150">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="C150" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D150" t="b">
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -3136,7 +3139,7 @@
         <v>30</v>
       </c>
       <c r="B151">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="C151" t="s">
         <v>9</v>
@@ -3153,7 +3156,7 @@
         <v>30</v>
       </c>
       <c r="B152">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="C152" t="s">
         <v>10</v>
@@ -3170,7 +3173,7 @@
         <v>30</v>
       </c>
       <c r="B153">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C153" t="s">
         <v>9</v>
@@ -3187,7 +3190,7 @@
         <v>30</v>
       </c>
       <c r="B154">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C154" t="s">
         <v>10</v>
@@ -3204,7 +3207,7 @@
         <v>30</v>
       </c>
       <c r="B155">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C155" t="s">
         <v>9</v>
@@ -3221,7 +3224,7 @@
         <v>30</v>
       </c>
       <c r="B156">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C156" t="s">
         <v>10</v>
@@ -3235,13 +3238,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B157">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="C157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D157" t="b">
         <v>1</v>
@@ -3252,44 +3255,44 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B158">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D158" t="b">
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B159">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="b">
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B160">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C160" t="s">
         <v>10</v>
@@ -3306,16 +3309,16 @@
         <v>31</v>
       </c>
       <c r="B161">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="b">
         <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -3323,16 +3326,16 @@
         <v>31</v>
       </c>
       <c r="B162">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D162" t="b">
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -3340,10 +3343,10 @@
         <v>31</v>
       </c>
       <c r="B163">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D163" t="b">
         <v>1</v>
@@ -3357,16 +3360,16 @@
         <v>31</v>
       </c>
       <c r="B164">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D164" t="b">
         <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -3374,16 +3377,16 @@
         <v>31</v>
       </c>
       <c r="B165">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C165" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D165" t="b">
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -3391,16 +3394,16 @@
         <v>31</v>
       </c>
       <c r="B166">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="b">
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -3408,16 +3411,16 @@
         <v>31</v>
       </c>
       <c r="B167">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D167" t="b">
         <v>1</v>
       </c>
       <c r="E167" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -3425,10 +3428,10 @@
         <v>31</v>
       </c>
       <c r="B168">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C168" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D168" t="b">
         <v>1</v>
@@ -3442,16 +3445,16 @@
         <v>31</v>
       </c>
       <c r="B169">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D169" t="b">
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -3459,10 +3462,10 @@
         <v>31</v>
       </c>
       <c r="B170">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D170" t="b">
         <v>1</v>
@@ -3476,27 +3479,27 @@
         <v>31</v>
       </c>
       <c r="B171">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D171" t="b">
         <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B172">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D172" t="b">
         <v>1</v>
@@ -3507,13 +3510,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B173">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C173" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D173" t="b">
         <v>1</v>
@@ -3524,13 +3527,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B174">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D174" t="b">
         <v>1</v>
@@ -3541,13 +3544,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B175">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C175" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D175" t="b">
         <v>1</v>
@@ -3558,13 +3561,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B176">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="b">
         <v>1</v>
@@ -3575,13 +3578,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B177">
         <v>2012</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="b">
         <v>1</v>
@@ -3592,13 +3595,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B178">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C178" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D178" t="b">
         <v>1</v>
@@ -3609,13 +3612,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B179">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D179" t="b">
         <v>1</v>
@@ -3629,10 +3632,10 @@
         <v>33</v>
       </c>
       <c r="B180">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D180" t="b">
         <v>1</v>
@@ -3646,10 +3649,10 @@
         <v>33</v>
       </c>
       <c r="B181">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C181" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D181" t="b">
         <v>1</v>
@@ -3663,10 +3666,10 @@
         <v>33</v>
       </c>
       <c r="B182">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D182" t="b">
         <v>1</v>
@@ -3680,7 +3683,7 @@
         <v>33</v>
       </c>
       <c r="B183">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="C183" t="s">
         <v>8</v>
@@ -3694,13 +3697,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B184">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="C184" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D184" t="b">
         <v>1</v>
@@ -3711,13 +3714,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B185">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="b">
         <v>1</v>
@@ -3728,13 +3731,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B186">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C186" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D186" t="b">
         <v>1</v>
@@ -3745,10 +3748,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B187">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="C187" t="s">
         <v>8</v>
@@ -3765,10 +3768,10 @@
         <v>34</v>
       </c>
       <c r="B188">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D188" t="b">
         <v>1</v>
@@ -3782,10 +3785,10 @@
         <v>34</v>
       </c>
       <c r="B189">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C189" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D189" t="b">
         <v>1</v>
@@ -3796,13 +3799,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B190">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C190" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D190" t="b">
         <v>1</v>
@@ -3813,10 +3816,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B191">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="C191" t="s">
         <v>8</v>
@@ -3830,10 +3833,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B192">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C192" t="s">
         <v>9</v>
@@ -3847,10 +3850,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B193">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C193" t="s">
         <v>10</v>
@@ -3867,7 +3870,7 @@
         <v>35</v>
       </c>
       <c r="B194">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
@@ -3884,7 +3887,7 @@
         <v>35</v>
       </c>
       <c r="B195">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C195" t="s">
         <v>8</v>
@@ -3901,7 +3904,7 @@
         <v>35</v>
       </c>
       <c r="B196">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C196" t="s">
         <v>9</v>
@@ -3918,7 +3921,7 @@
         <v>35</v>
       </c>
       <c r="B197">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C197" t="s">
         <v>10</v>
@@ -3935,7 +3938,7 @@
         <v>35</v>
       </c>
       <c r="B198">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
@@ -3952,7 +3955,7 @@
         <v>35</v>
       </c>
       <c r="B199">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C199" t="s">
         <v>8</v>
@@ -3969,7 +3972,7 @@
         <v>35</v>
       </c>
       <c r="B200">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C200" t="s">
         <v>9</v>
@@ -3986,7 +3989,7 @@
         <v>35</v>
       </c>
       <c r="B201">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C201" t="s">
         <v>10</v>
@@ -4003,7 +4006,7 @@
         <v>35</v>
       </c>
       <c r="B202">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
@@ -4020,7 +4023,7 @@
         <v>35</v>
       </c>
       <c r="B203">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C203" t="s">
         <v>8</v>
@@ -4037,7 +4040,7 @@
         <v>35</v>
       </c>
       <c r="B204">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C204" t="s">
         <v>9</v>
@@ -4054,7 +4057,7 @@
         <v>35</v>
       </c>
       <c r="B205">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C205" t="s">
         <v>10</v>
@@ -4071,7 +4074,7 @@
         <v>35</v>
       </c>
       <c r="B206">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
@@ -4088,7 +4091,7 @@
         <v>35</v>
       </c>
       <c r="B207">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C207" t="s">
         <v>8</v>
@@ -4105,10 +4108,10 @@
         <v>35</v>
       </c>
       <c r="B208">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="b">
         <v>1</v>
@@ -4122,10 +4125,10 @@
         <v>35</v>
       </c>
       <c r="B209">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D209" t="b">
         <v>1</v>
@@ -4136,13 +4139,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B210">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D210" t="b">
         <v>1</v>
@@ -4153,13 +4156,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B211">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C211" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D211" t="b">
         <v>1</v>
@@ -4170,13 +4173,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B212">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D212" t="b">
         <v>1</v>
@@ -4187,13 +4190,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B213">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="C213" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D213" t="b">
         <v>1</v>
@@ -4204,7 +4207,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B214">
         <v>2010</v>
@@ -4221,7 +4224,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B215">
         <v>2010</v>
@@ -4238,7 +4241,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B216">
         <v>2014</v>
@@ -4255,7 +4258,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B217">
         <v>2014</v>
@@ -4272,30 +4275,30 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B218">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C218" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D218" t="b">
         <v>1</v>
       </c>
       <c r="E218" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B219">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="C219" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D219" t="b">
         <v>1</v>
@@ -4306,30 +4309,30 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B220">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C220" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D220" t="b">
         <v>1</v>
       </c>
       <c r="E220" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B221">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D221" t="b">
         <v>1</v>
@@ -4343,16 +4346,16 @@
         <v>38</v>
       </c>
       <c r="B222">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="C222" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D222" t="b">
         <v>1</v>
       </c>
       <c r="E222" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -4360,7 +4363,7 @@
         <v>38</v>
       </c>
       <c r="B223">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
@@ -4377,7 +4380,7 @@
         <v>38</v>
       </c>
       <c r="B224">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
@@ -4394,7 +4397,7 @@
         <v>38</v>
       </c>
       <c r="B225">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C225" t="s">
         <v>9</v>
@@ -4411,7 +4414,7 @@
         <v>38</v>
       </c>
       <c r="B226">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C226" t="s">
         <v>10</v>
@@ -4428,7 +4431,7 @@
         <v>38</v>
       </c>
       <c r="B227">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
@@ -4445,7 +4448,7 @@
         <v>38</v>
       </c>
       <c r="B228">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
@@ -4462,10 +4465,10 @@
         <v>38</v>
       </c>
       <c r="B229">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C229" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D229" t="b">
         <v>1</v>
@@ -4479,27 +4482,27 @@
         <v>38</v>
       </c>
       <c r="B230">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="C230" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D230" t="b">
         <v>1</v>
       </c>
       <c r="E230" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B231">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C231" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D231" t="b">
         <v>1</v>
@@ -4510,30 +4513,30 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B232">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C232" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D232" t="b">
         <v>1</v>
       </c>
       <c r="E232" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B233">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C233" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D233" t="b">
         <v>1</v>
@@ -4544,27 +4547,27 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B234">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="C234" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D234" t="b">
         <v>1</v>
       </c>
       <c r="E234" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B235">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="C235" t="s">
         <v>9</v>
@@ -4573,15 +4576,15 @@
         <v>1</v>
       </c>
       <c r="E235" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B236">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="C236" t="s">
         <v>10</v>
@@ -4595,10 +4598,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B237">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C237" t="s">
         <v>9</v>
@@ -4607,15 +4610,15 @@
         <v>1</v>
       </c>
       <c r="E237" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B238">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C238" t="s">
         <v>10</v>
@@ -4632,7 +4635,7 @@
         <v>41</v>
       </c>
       <c r="B239">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="C239" t="s">
         <v>9</v>
@@ -4649,7 +4652,7 @@
         <v>41</v>
       </c>
       <c r="B240">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="C240" t="s">
         <v>10</v>
@@ -4666,7 +4669,7 @@
         <v>41</v>
       </c>
       <c r="B241">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C241" t="s">
         <v>9</v>
@@ -4683,7 +4686,7 @@
         <v>41</v>
       </c>
       <c r="B242">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C242" t="s">
         <v>10</v>
@@ -4700,7 +4703,7 @@
         <v>41</v>
       </c>
       <c r="B243">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C243" t="s">
         <v>9</v>
@@ -4717,7 +4720,7 @@
         <v>41</v>
       </c>
       <c r="B244">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C244" t="s">
         <v>10</v>
@@ -4731,30 +4734,30 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B245">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="C245" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D245" t="b">
         <v>1</v>
       </c>
       <c r="E245" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B246">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="C246" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D246" t="b">
         <v>1</v>
@@ -4765,10 +4768,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B247">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C247" t="s">
         <v>9</v>
@@ -4782,10 +4785,10 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B248">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C248" t="s">
         <v>10</v>
@@ -4794,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="E248" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -4802,7 +4805,7 @@
         <v>42</v>
       </c>
       <c r="B249">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C249" t="s">
         <v>6</v>
@@ -4819,7 +4822,7 @@
         <v>42</v>
       </c>
       <c r="B250">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C250" t="s">
         <v>8</v>
@@ -4836,7 +4839,7 @@
         <v>42</v>
       </c>
       <c r="B251">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C251" t="s">
         <v>9</v>
@@ -4853,7 +4856,7 @@
         <v>42</v>
       </c>
       <c r="B252">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C252" t="s">
         <v>10</v>
@@ -4870,7 +4873,7 @@
         <v>42</v>
       </c>
       <c r="B253">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C253" t="s">
         <v>6</v>
@@ -4887,7 +4890,7 @@
         <v>42</v>
       </c>
       <c r="B254">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C254" t="s">
         <v>8</v>
@@ -4904,7 +4907,7 @@
         <v>42</v>
       </c>
       <c r="B255">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C255" t="s">
         <v>9</v>
@@ -4921,7 +4924,7 @@
         <v>42</v>
       </c>
       <c r="B256">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C256" t="s">
         <v>10</v>
@@ -4938,7 +4941,7 @@
         <v>42</v>
       </c>
       <c r="B257">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C257" t="s">
         <v>6</v>
@@ -4955,7 +4958,7 @@
         <v>42</v>
       </c>
       <c r="B258">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C258" t="s">
         <v>8</v>
@@ -4972,7 +4975,7 @@
         <v>42</v>
       </c>
       <c r="B259">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C259" t="s">
         <v>9</v>
@@ -4989,7 +4992,7 @@
         <v>42</v>
       </c>
       <c r="B260">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C260" t="s">
         <v>10</v>
@@ -5006,7 +5009,7 @@
         <v>42</v>
       </c>
       <c r="B261">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
@@ -5023,7 +5026,7 @@
         <v>42</v>
       </c>
       <c r="B262">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C262" t="s">
         <v>8</v>
@@ -5037,47 +5040,47 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B263">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C263" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D263" t="b">
         <v>1</v>
       </c>
       <c r="E263" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B264">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C264" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D264" t="b">
         <v>1</v>
       </c>
       <c r="E264" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B265">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C265" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D265" t="b">
         <v>1</v>
@@ -5088,10 +5091,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B266">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C266" t="s">
         <v>8</v>
@@ -5108,10 +5111,10 @@
         <v>43</v>
       </c>
       <c r="B267">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C267" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D267" t="b">
         <v>1</v>
@@ -5125,10 +5128,10 @@
         <v>43</v>
       </c>
       <c r="B268">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="C268" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D268" t="b">
         <v>1</v>
@@ -5142,10 +5145,10 @@
         <v>43</v>
       </c>
       <c r="B269">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="C269" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D269" t="b">
         <v>1</v>
@@ -5156,47 +5159,47 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B270">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="C270" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D270" t="b">
         <v>1</v>
       </c>
       <c r="E270" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B271">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C271" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D271" t="b">
         <v>1</v>
       </c>
       <c r="E271" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B272">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C272" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D272" t="b">
         <v>1</v>
@@ -5207,19 +5210,19 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B273">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="C273" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D273" t="b">
         <v>1</v>
       </c>
       <c r="E273" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -5227,7 +5230,7 @@
         <v>44</v>
       </c>
       <c r="B274">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="C274" t="s">
         <v>10</v>
@@ -5244,16 +5247,16 @@
         <v>44</v>
       </c>
       <c r="B275">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C275" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D275" t="b">
         <v>1</v>
       </c>
       <c r="E275" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -5261,16 +5264,16 @@
         <v>44</v>
       </c>
       <c r="B276">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C276" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D276" t="b">
         <v>1</v>
       </c>
       <c r="E276" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -5278,7 +5281,7 @@
         <v>44</v>
       </c>
       <c r="B277">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="C277" t="s">
         <v>10</v>
@@ -5292,30 +5295,30 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B278">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C278" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D278" t="b">
         <v>1</v>
       </c>
       <c r="E278" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B279">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C279" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D279" t="b">
         <v>1</v>
@@ -5326,36 +5329,36 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B280">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C280" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D280" t="b">
         <v>1</v>
       </c>
       <c r="E280" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B281">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="C281" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D281" t="b">
         <v>1</v>
       </c>
       <c r="E281" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -5363,10 +5366,10 @@
         <v>45</v>
       </c>
       <c r="B282">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C282" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D282" t="b">
         <v>1</v>
@@ -5377,13 +5380,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B283">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C283" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D283" t="b">
         <v>1</v>
@@ -5394,13 +5397,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B284">
         <v>2012</v>
       </c>
       <c r="C284" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D284" t="b">
         <v>1</v>
@@ -5411,10 +5414,10 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B285">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C285" t="s">
         <v>9</v>
@@ -5428,10 +5431,10 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B286">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C286" t="s">
         <v>10</v>
@@ -5445,7 +5448,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B287">
         <v>2012</v>
@@ -5462,7 +5465,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B288">
         <v>2012</v>
@@ -5479,7 +5482,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B289">
         <v>2016</v>
@@ -5496,7 +5499,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B290">
         <v>2016</v>
@@ -5513,30 +5516,30 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B291">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="C291" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D291" t="b">
         <v>1</v>
       </c>
       <c r="E291" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B292">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C292" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D292" t="b">
         <v>1</v>
@@ -5547,30 +5550,30 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B293">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C293" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D293" t="b">
         <v>1</v>
       </c>
       <c r="E293" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B294">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C294" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D294" t="b">
         <v>1</v>
@@ -5584,7 +5587,7 @@
         <v>48</v>
       </c>
       <c r="B295">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="C295" t="s">
         <v>10</v>
@@ -5593,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -5601,16 +5604,16 @@
         <v>48</v>
       </c>
       <c r="B296">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="C296" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D296" t="b">
         <v>1</v>
       </c>
       <c r="E296" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
@@ -5618,7 +5621,7 @@
         <v>48</v>
       </c>
       <c r="B297">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C297" t="s">
         <v>10</v>
@@ -5635,7 +5638,7 @@
         <v>48</v>
       </c>
       <c r="B298">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C298" t="s">
         <v>9</v>
@@ -5652,7 +5655,7 @@
         <v>48</v>
       </c>
       <c r="B299">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C299" t="s">
         <v>10</v>
@@ -5666,10 +5669,10 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B300">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="C300" t="s">
         <v>9</v>
@@ -5678,15 +5681,15 @@
         <v>1</v>
       </c>
       <c r="E300" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B301">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="C301" t="s">
         <v>10</v>
@@ -5695,15 +5698,15 @@
         <v>1</v>
       </c>
       <c r="E301" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B302">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C302" t="s">
         <v>9</v>
@@ -5717,10 +5720,10 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B303">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C303" t="s">
         <v>10</v>
@@ -5737,7 +5740,7 @@
         <v>49</v>
       </c>
       <c r="B304">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="C304" t="s">
         <v>9</v>
@@ -5754,7 +5757,7 @@
         <v>49</v>
       </c>
       <c r="B305">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="C305" t="s">
         <v>10</v>
@@ -5768,10 +5771,10 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B306">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C306" t="s">
         <v>9</v>
@@ -5785,10 +5788,10 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B307">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C307" t="s">
         <v>10</v>
@@ -5797,15 +5800,15 @@
         <v>1</v>
       </c>
       <c r="E307" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B308">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C308" t="s">
         <v>9</v>
@@ -5819,10 +5822,10 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B309">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C309" t="s">
         <v>10</v>
@@ -5831,7 +5834,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -5839,7 +5842,7 @@
         <v>50</v>
       </c>
       <c r="B310">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="C310" t="s">
         <v>9</v>
@@ -5856,7 +5859,7 @@
         <v>50</v>
       </c>
       <c r="B311">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="C311" t="s">
         <v>10</v>
@@ -5870,10 +5873,10 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B312">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C312" t="s">
         <v>9</v>
@@ -5887,10 +5890,10 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B313">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C313" t="s">
         <v>10</v>
@@ -5899,15 +5902,15 @@
         <v>1</v>
       </c>
       <c r="E313" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B314">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C314" t="s">
         <v>9</v>
@@ -5921,10 +5924,10 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B315">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C315" t="s">
         <v>10</v>
@@ -5933,18 +5936,18 @@
         <v>1</v>
       </c>
       <c r="E315" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B316">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="C316" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D316" t="b">
         <v>1</v>
@@ -5955,13 +5958,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B317">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C317" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D317" t="b">
         <v>1</v>
@@ -5972,10 +5975,10 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B318">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C318" t="s">
         <v>9</v>
@@ -5989,10 +5992,10 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B319">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C319" t="s">
         <v>10</v>
@@ -6009,10 +6012,10 @@
         <v>52</v>
       </c>
       <c r="B320">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="C320" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D320" t="b">
         <v>1</v>
@@ -6026,10 +6029,10 @@
         <v>52</v>
       </c>
       <c r="B321">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C321" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D321" t="b">
         <v>1</v>
@@ -6040,7 +6043,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B322">
         <v>2012</v>
@@ -6057,7 +6060,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B323">
         <v>2012</v>
@@ -6074,7 +6077,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B324">
         <v>2016</v>
@@ -6091,7 +6094,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B325">
         <v>2016</v>
@@ -6108,10 +6111,10 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B326">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="C326" t="s">
         <v>9</v>
@@ -6120,15 +6123,15 @@
         <v>1</v>
       </c>
       <c r="E326" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B327">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="C327" t="s">
         <v>10</v>
@@ -6137,15 +6140,15 @@
         <v>1</v>
       </c>
       <c r="E327" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B328">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C328" t="s">
         <v>9</v>
@@ -6154,15 +6157,15 @@
         <v>1</v>
       </c>
       <c r="E328" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B329">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C329" t="s">
         <v>10</v>
@@ -6171,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -6179,7 +6182,7 @@
         <v>54</v>
       </c>
       <c r="B330">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="C330" t="s">
         <v>9</v>
@@ -6196,7 +6199,7 @@
         <v>54</v>
       </c>
       <c r="B331">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="C331" t="s">
         <v>10</v>
@@ -6213,7 +6216,7 @@
         <v>54</v>
       </c>
       <c r="B332">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C332" t="s">
         <v>9</v>
@@ -6230,7 +6233,7 @@
         <v>54</v>
       </c>
       <c r="B333">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C333" t="s">
         <v>10</v>
@@ -6247,7 +6250,7 @@
         <v>54</v>
       </c>
       <c r="B334">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C334" t="s">
         <v>9</v>
@@ -6264,7 +6267,7 @@
         <v>54</v>
       </c>
       <c r="B335">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C335" t="s">
         <v>10</v>
@@ -6278,13 +6281,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B336">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="C336" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D336" t="b">
         <v>1</v>
@@ -6295,10 +6298,10 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B337">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C337" t="s">
         <v>10</v>
@@ -6312,10 +6315,10 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B338">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C338" t="s">
         <v>9</v>
@@ -6324,15 +6327,15 @@
         <v>1</v>
       </c>
       <c r="E338" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B339">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C339" t="s">
         <v>10</v>
@@ -6341,7 +6344,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
@@ -6349,7 +6352,7 @@
         <v>55</v>
       </c>
       <c r="B340">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="C340" t="s">
         <v>10</v>
@@ -6366,16 +6369,16 @@
         <v>55</v>
       </c>
       <c r="B341">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C341" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D341" t="b">
         <v>1</v>
       </c>
       <c r="E341" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
@@ -6383,10 +6386,10 @@
         <v>55</v>
       </c>
       <c r="B342">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C342" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D342" t="b">
         <v>1</v>
@@ -6397,10 +6400,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B343">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C343" t="s">
         <v>10</v>
@@ -6409,15 +6412,15 @@
         <v>1</v>
       </c>
       <c r="E343" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B344">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C344" t="s">
         <v>10</v>
@@ -6431,24 +6434,24 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B345">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C345" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D345" t="b">
         <v>1</v>
       </c>
       <c r="E345" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B346">
         <v>2016</v>
@@ -6460,7 +6463,7 @@
         <v>1</v>
       </c>
       <c r="E346" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
@@ -6468,7 +6471,7 @@
         <v>56</v>
       </c>
       <c r="B347">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="C347" t="s">
         <v>10</v>
@@ -6485,7 +6488,7 @@
         <v>56</v>
       </c>
       <c r="B348">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="C348" t="s">
         <v>10</v>
@@ -6502,7 +6505,7 @@
         <v>56</v>
       </c>
       <c r="B349">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="C349" t="s">
         <v>10</v>
@@ -6519,78 +6522,78 @@
         <v>56</v>
       </c>
       <c r="B350">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C350" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D350" t="b">
         <v>1</v>
       </c>
       <c r="E350" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B351">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="C351" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D351" t="b">
         <v>1</v>
       </c>
       <c r="E351" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B352">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="C352" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D352" t="b">
         <v>1</v>
       </c>
       <c r="E352" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B353">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="C353" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D353" t="b">
         <v>1</v>
       </c>
       <c r="E353" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B354">
         <v>2010</v>
       </c>
       <c r="C354" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D354" t="b">
         <v>1</v>
@@ -6604,7 +6607,7 @@
         <v>57</v>
       </c>
       <c r="B355">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C355" t="s">
         <v>6</v>
@@ -6621,7 +6624,7 @@
         <v>57</v>
       </c>
       <c r="B356">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C356" t="s">
         <v>8</v>
@@ -6638,7 +6641,7 @@
         <v>57</v>
       </c>
       <c r="B357">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C357" t="s">
         <v>9</v>
@@ -6655,7 +6658,7 @@
         <v>57</v>
       </c>
       <c r="B358">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C358" t="s">
         <v>10</v>
@@ -6672,7 +6675,7 @@
         <v>57</v>
       </c>
       <c r="B359">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C359" t="s">
         <v>6</v>
@@ -6689,10 +6692,10 @@
         <v>57</v>
       </c>
       <c r="B360">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C360" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D360" t="b">
         <v>1</v>
@@ -6709,7 +6712,7 @@
         <v>2012</v>
       </c>
       <c r="C361" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D361" t="b">
         <v>1</v>
@@ -6723,10 +6726,10 @@
         <v>57</v>
       </c>
       <c r="B362">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C362" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D362" t="b">
         <v>1</v>
@@ -6740,10 +6743,10 @@
         <v>57</v>
       </c>
       <c r="B363">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C363" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D363" t="b">
         <v>1</v>
@@ -6757,10 +6760,10 @@
         <v>57</v>
       </c>
       <c r="B364">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C364" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D364" t="b">
         <v>1</v>
@@ -6774,7 +6777,7 @@
         <v>57</v>
       </c>
       <c r="B365">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C365" t="s">
         <v>8</v>
@@ -6791,7 +6794,7 @@
         <v>57</v>
       </c>
       <c r="B366">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C366" t="s">
         <v>9</v>
@@ -6808,7 +6811,7 @@
         <v>57</v>
       </c>
       <c r="B367">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C367" t="s">
         <v>10</v>
@@ -6825,7 +6828,7 @@
         <v>57</v>
       </c>
       <c r="B368">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C368" t="s">
         <v>6</v>
@@ -6842,7 +6845,7 @@
         <v>57</v>
       </c>
       <c r="B369">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C369" t="s">
         <v>8</v>
@@ -6859,10 +6862,10 @@
         <v>57</v>
       </c>
       <c r="B370">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C370" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D370" t="b">
         <v>1</v>
@@ -6876,10 +6879,10 @@
         <v>57</v>
       </c>
       <c r="B371">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C371" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D371" t="b">
         <v>1</v>
@@ -6893,10 +6896,10 @@
         <v>57</v>
       </c>
       <c r="B372">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="C372" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D372" t="b">
         <v>1</v>
@@ -6907,13 +6910,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B373">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C373" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D373" t="b">
         <v>1</v>
@@ -6924,13 +6927,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B374">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C374" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D374" t="b">
         <v>1</v>
@@ -6941,13 +6944,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B375">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="C375" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D375" t="b">
         <v>1</v>
@@ -6958,13 +6961,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B376">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="C376" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D376" t="b">
         <v>1</v>
@@ -6978,7 +6981,7 @@
         <v>58</v>
       </c>
       <c r="B377">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="C377" t="s">
         <v>9</v>
@@ -6992,13 +6995,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B378">
         <v>2010</v>
       </c>
       <c r="C378" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D378" t="b">
         <v>1</v>
@@ -7009,13 +7012,13 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B379">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C379" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D379" t="b">
         <v>1</v>
@@ -7026,13 +7029,13 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B380">
         <v>2014</v>
       </c>
       <c r="C380" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D380" t="b">
         <v>1</v>
@@ -7043,13 +7046,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B381">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="C381" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D381" t="b">
         <v>1</v>
@@ -7060,10 +7063,10 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B382">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C382" t="s">
         <v>9</v>
@@ -7077,10 +7080,10 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B383">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C383" t="s">
         <v>10</v>
@@ -7094,10 +7097,10 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B384">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C384" t="s">
         <v>9</v>
@@ -7111,10 +7114,10 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B385">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C385" t="s">
         <v>10</v>
@@ -7128,10 +7131,10 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B386">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="C386" t="s">
         <v>9</v>
@@ -7140,32 +7143,32 @@
         <v>1</v>
       </c>
       <c r="E386" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B387">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C387" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D387" t="b">
         <v>1</v>
       </c>
       <c r="E387" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B388">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C388" t="s">
         <v>9</v>
@@ -7174,15 +7177,15 @@
         <v>1</v>
       </c>
       <c r="E388" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B389">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C389" t="s">
         <v>10</v>
@@ -7199,7 +7202,7 @@
         <v>61</v>
       </c>
       <c r="B390">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="C390" t="s">
         <v>9</v>
@@ -7216,7 +7219,7 @@
         <v>61</v>
       </c>
       <c r="B391">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C391" t="s">
         <v>9</v>
@@ -7233,21 +7236,21 @@
         <v>61</v>
       </c>
       <c r="B392">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C392" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D392" t="b">
         <v>1</v>
       </c>
       <c r="E392" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B393">
         <v>2012</v>
@@ -7259,23 +7262,91 @@
         <v>1</v>
       </c>
       <c r="E393" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
+        <v>61</v>
+      </c>
+      <c r="B394">
+        <v>2014</v>
+      </c>
+      <c r="C394" t="s">
+        <v>9</v>
+      </c>
+      <c r="D394" t="b">
+        <v>1</v>
+      </c>
+      <c r="E394" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>61</v>
+      </c>
+      <c r="B395">
+        <v>2016</v>
+      </c>
+      <c r="C395" t="s">
+        <v>9</v>
+      </c>
+      <c r="D395" t="b">
+        <v>1</v>
+      </c>
+      <c r="E395" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>61</v>
+      </c>
+      <c r="B396">
+        <v>2016</v>
+      </c>
+      <c r="C396" t="s">
+        <v>10</v>
+      </c>
+      <c r="D396" t="b">
+        <v>1</v>
+      </c>
+      <c r="E396" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
         <v>50</v>
       </c>
-      <c r="B394">
-        <v>2016</v>
-      </c>
-      <c r="C394" t="s">
-        <v>10</v>
-      </c>
-      <c r="D394" t="b">
-        <v>1</v>
-      </c>
-      <c r="E394" t="s">
+      <c r="B397">
+        <v>2012</v>
+      </c>
+      <c r="C397" t="s">
+        <v>10</v>
+      </c>
+      <c r="D397" t="b">
+        <v>1</v>
+      </c>
+      <c r="E397" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>50</v>
+      </c>
+      <c r="B398">
+        <v>2016</v>
+      </c>
+      <c r="C398" t="s">
+        <v>10</v>
+      </c>
+      <c r="D398" t="b">
+        <v>1</v>
+      </c>
+      <c r="E398" t="s">
         <v>12</v>
       </c>
     </row>

--- a/data/misc/skip_conditions_final.xlsx
+++ b/data/misc/skip_conditions_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdpruett/Desktop/CES Accuracy Analysis/data/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BB1A84-75E7-AE4C-AC9D-6524D69F5C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185573DF-A41C-DC4B-9481-126880A09E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="1900" windowWidth="21040" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="73">
   <si>
     <t>State</t>
   </si>
@@ -250,6 +250,9 @@
   <si>
     <t>GOV_PARTY_rc</t>
   </si>
+  <si>
+    <t>CES accidentally used candidate names from Ohio, not ND</t>
+  </si>
 </sst>
 </file>
 
@@ -292,9 +295,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E787"/>
+  <dimension ref="A1:E789"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A768" workbookViewId="0">
+      <selection activeCell="E792" sqref="E792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14002,6 +14006,40 @@
       </c>
       <c r="E787" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>54</v>
+      </c>
+      <c r="B788">
+        <v>2022</v>
+      </c>
+      <c r="C788" t="s">
+        <v>10</v>
+      </c>
+      <c r="D788" t="b">
+        <v>1</v>
+      </c>
+      <c r="E788" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>54</v>
+      </c>
+      <c r="B789">
+        <v>2022</v>
+      </c>
+      <c r="C789" t="s">
+        <v>13</v>
+      </c>
+      <c r="D789" t="b">
+        <v>1</v>
+      </c>
+      <c r="E789" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
